--- a/BNQ ARTICLE.xlsx
+++ b/BNQ ARTICLE.xlsx
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="385">
   <si>
     <t>UNIQUE Identifier</t>
   </si>
@@ -1301,6 +1301,15 @@
   </si>
   <si>
     <t>17092018105207BQ7</t>
+  </si>
+  <si>
+    <t>17092018161049BQ7</t>
+  </si>
+  <si>
+    <t>17092018161812BQ7</t>
+  </si>
+  <si>
+    <t>17092018162301BQ7</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1430,6 +1439,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3935,7 +3947,7 @@
         <v>343</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>344</v>

--- a/BNQ ARTICLE.xlsx
+++ b/BNQ ARTICLE.xlsx
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="387">
   <si>
     <t>UNIQUE Identifier</t>
   </si>
@@ -1310,6 +1310,12 @@
   </si>
   <si>
     <t>17092018162301BQ7</t>
+  </si>
+  <si>
+    <t>18092018135717BQ7</t>
+  </si>
+  <si>
+    <t>20180918</t>
   </si>
 </sst>
 </file>
@@ -3947,7 +3953,7 @@
         <v>343</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>344</v>
@@ -4116,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="CA8" s="4" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="CB8" s="4">
         <v>99991231</v>

--- a/BNQ ARTICLE.xlsx
+++ b/BNQ ARTICLE.xlsx
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="392">
   <si>
     <t>UNIQUE Identifier</t>
   </si>
@@ -1316,6 +1316,21 @@
   </si>
   <si>
     <t>20180918</t>
+  </si>
+  <si>
+    <t>19092018072643BQ7</t>
+  </si>
+  <si>
+    <t>20180919</t>
+  </si>
+  <si>
+    <t>19092018124705BQ7</t>
+  </si>
+  <si>
+    <t>19092018124822BQ7</t>
+  </si>
+  <si>
+    <t>19092018130804BQ7</t>
   </si>
 </sst>
 </file>
@@ -3953,7 +3968,7 @@
         <v>343</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>344</v>
@@ -4122,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="CA8" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="CB8" s="4">
         <v>99991231</v>
